--- a/benchmark/Mobile_manipulator_product_list.xlsx
+++ b/benchmark/Mobile_manipulator_product_list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nswve\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nswve\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17685"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="HARDWARE" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>Product list</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,26 +42,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Motor(ARM)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Motor(BASE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MCU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Audio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB Hub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Depth Cam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,23 +82,211 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Accelerometer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slamtex RPLidar A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel NUC-8 I5-8259U/RAM:16GB/SSD:500GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D435 with IMU (D435i)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan range of motion : 346 deg
+Tilt range of motion : 115 deg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motor(WRIST-PCBA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motor(BASE-PCBA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motor(HEAD-PCBA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motor(SHOULDER-PCBA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamixel XL430 x 2
+Arm Controller : Atmel SAMD21G18 x 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm Controller : Atmel SAMD21G18 x 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 inch diameter, urethane rubber shore 60A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diameter 50mm</t>
+  </si>
+  <si>
+    <t>Ethernet Port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connected to computer NIC</t>
+  </si>
+  <si>
+    <t>USB HUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light on when its on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery charger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rated for upplied 12V/7A charger</t>
+  </si>
+  <si>
+    <t>HDMI Port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connected to computer HDMI</t>
+  </si>
+  <si>
+    <t>Wheel Stepper Controller : Atmel SAMD21G18 x 3
+Lift Stepper Controller : Atmel SAMD21G18 x 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timing belt for lift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gripper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamixel XL430 x 2
+Arm Controller : Atmel SAMD21G18 x 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamixel XL430 x 2</t>
+  </si>
+  <si>
     <t>Charger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Motor(CAM)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mircophone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accelerometer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timing belt</t>
+    <t>6 Port USB Hub - USB 3.0 , powered 5V/3A
+4 Port USB-3 Hub for Atmel Controller  x 3
+7 Port USB-3 Hub for User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvidia Jetson NX(석훈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamixel XL430 x 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Motor(인휠 드라이버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharp GP2Y0A51SK0F, Analog, range 2-15 cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMG Button/ On off Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batter 선정할 때 고민해야 함/메인 분배기 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호연이/현준이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텝 모터/타이밍 밸트/효재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9DOF FXOS8700 + FXAS21002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slamtex RPLidar A2-A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 : https://www.devicemart.co.kr/goods/view?no=12498793#goods_file
+3D 모델 : https://www.slamtec.com/en/Support#rplidar-a2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 : http://vctec.co.kr/product/9dof-imu%EC%84%BC%EC%84%9C-fxos8700-fxas21002-adafruit-precision-nxp-9-dof-breakout-bo/11435/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel D455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D 모델 : https://dev.intelrealsense.com/docs/cad-files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D 모델 : https://github.com/ROBOTIS-GIT/OpenCR-Hardware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 DOF ADXL343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 : https://www.icbanq.com/P007406244
+3D 모델 : https://grabcad.com/library/adxl345-digital-accelerometer-adafuit-breakout-board-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 : https://www.robotis.com/shop/item.php?it_id=902-0135-000
+3D 모델 : https://emanual.robotis.com/docs/kr/dxl/x/xl430-w250/#%EB%8F%84%EB%A9%B4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +339,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,12 +373,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,12 +394,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,17 +714,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="42.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="122.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -509,7 +738,9 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -529,111 +760,271 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:18" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D3:D5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" display="http://vctec.co.kr/product/9dof-imu%EC%84%BC%EC%84%9C-fxos8700-fxas21002-adafruit-precision-nxp-9-dof-breakout-bo/11435/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/benchmark/Mobile_manipulator_product_list.xlsx
+++ b/benchmark/Mobile_manipulator_product_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nswve\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nswve\Desktop\SSMM\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,16 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
   <si>
     <t>Product list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Battery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Actual product</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +71,6 @@
   </si>
   <si>
     <t>Mecanum wheel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>On/Off switch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -143,10 +135,6 @@
   </si>
   <si>
     <t>USB HUB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>light on when its on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -195,22 +183,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nvidia Jetson NX(석훈)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dynamixel XL430 x 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Base Motor(인휠 드라이버)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OpenCR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,14 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EMG Button/ On off Button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Batter 선정할 때 고민해야 함/메인 분배기 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>호연이/현준이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,38 +223,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>판매 : https://www.devicemart.co.kr/goods/view?no=12498793#goods_file
-3D 모델 : https://www.slamtec.com/en/Support#rplidar-a2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매 : http://vctec.co.kr/product/9dof-imu%EC%84%BC%EC%84%9C-fxos8700-fxas21002-adafruit-precision-nxp-9-dof-breakout-bo/11435/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Intel D455</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3D 모델 : https://dev.intelrealsense.com/docs/cad-files</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D 모델 : https://github.com/ROBOTIS-GIT/OpenCR-Hardware</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3 DOF ADXL343</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구매 : https://www.icbanq.com/P007406244
-3D 모델 : https://grabcad.com/library/adxl345-digital-accelerometer-adafuit-breakout-board-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매 : https://www.robotis.com/shop/item.php?it_id=902-0135-000
-3D 모델 : https://emanual.robotis.com/docs/kr/dxl/x/xl430-w250/#%EB%8F%84%EB%A9%B4</t>
+    <t>https://www.robotis.com/shop/item.php?it_id=903-0257-000</t>
+  </si>
+  <si>
+    <t>DCDC Converter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1342925</t>
+  </si>
+  <si>
+    <t>DC컨버터 12A 고출력 감압 정전압 스텝다운 모듈 [SZH-EKBD-058]</t>
+  </si>
+  <si>
+    <t>오리코 4포트 USB 3.0 허브 H4928-U3</t>
+  </si>
+  <si>
+    <t>Battery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">luna volt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정 UP2 Board</t>
+  </si>
+  <si>
+    <t>https://www.mouser.kr/datasheet/2/826/UP_Squared_Pro-2583598.pdf</t>
+  </si>
+  <si>
+    <t>Emergency stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[NW3 (중국)] 메탈 비상 정지 푸쉬락 스위치 [HX22-B1] </t>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1325072</t>
+  </si>
+  <si>
+    <t>Base Motor(인휠 Motor)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=38179</t>
+  </si>
+  <si>
+    <t>HDMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kwshop.co.kr/goods/view?no=6009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.robotis.com/shop/item.php?it_id=902-0135-000
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.motor114.co.kr/product_list.php?ca_id=206010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=13004394</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-M 이더넷 연장케이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharp GP2Y0A51SK0F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Batter 선정할 때 고민해야 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.icbanq.com/P007406244
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=12498793#goods_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lunavolt.com/product/list.html?cate_no=58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total buget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +379,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,16 +443,69 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -372,16 +513,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,26 +631,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="통화 [0]" xfId="2" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -714,18 +976,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.875" customWidth="1"/>
     <col min="2" max="2" width="42.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="122.875" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="59.875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -733,15 +998,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1"/>
+      <c r="D1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -756,121 +1023,133 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:18" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:18" ht="28.5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="23">
+        <v>220000</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="23">
+        <v>26300</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>57</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
@@ -878,153 +1157,267 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>47</v>
+      <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="30">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="29">
+        <f>SUM(E:E)</f>
+        <v>506050</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="31">
+        <f>G16-G17</f>
+        <v>2493950</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="23">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="23">
+        <v>28750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="23">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="23">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="B24" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="C24" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="23">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="23">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" display="http://vctec.co.kr/product/9dof-imu%EC%84%BC%EC%84%9C-fxos8700-fxas21002-adafruit-precision-nxp-9-dof-breakout-bo/11435/"/>
+    <hyperlink ref="D9" r:id="rId1" display="http://vctec.co.kr/product/9dof-imu%EC%84%BC%EC%84%9C-fxos8700-fxas21002-adafruit-precision-nxp-9-dof-breakout-bo/11435/"/>
+    <hyperlink ref="D21" r:id="rId2" display="https://www.coupang.com/vp/products/1119753499?itemId=2085451473&amp;vendorItemId=5314390393&amp;src=1042503&amp;spec=10304991&amp;addtag=400&amp;ctag=1119753499&amp;lptag=10304991I2085451473&amp;itime=20220417110821&amp;pageType=PRODUCT&amp;pageValue=1119753499&amp;wPcid=16273089285512028520121&amp;wRef=&amp;wTime=20220417110821&amp;redirect=landing&amp;gclid=Cj0KCQjw0umSBhDrARIsAH7FCocaFsNoAatytGQpsLwP7lYGYSKauSXaFZnOZSpa7SmHdwhsMRCrxAwaAv2wEALw_wcB&amp;campaignid=16513721924&amp;adgroupid=&amp;isAddedCart="/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D22" r:id="rId4"/>
+    <hyperlink ref="D23" r:id="rId5"/>
+    <hyperlink ref="D13" r:id="rId6"/>
+    <hyperlink ref="D24" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="D25" r:id="rId9"/>
+    <hyperlink ref="D19" r:id="rId10"/>
+    <hyperlink ref="D2" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId12"/>
+    <hyperlink ref="D15" r:id="rId13"/>
+    <hyperlink ref="D10" r:id="rId14" location="goods_file"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>